--- a/public/file/excel/template_upload_data_guru.xlsx
+++ b/public/file/excel/template_upload_data_guru.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>NIP</t>
   </si>
@@ -57,13 +57,16 @@
     <t>NAMA LENGKAP diisini nama lengkap guru</t>
   </si>
   <si>
-    <t>USERNAME diisi dengan nama_depan-nama_tengah, apabila nama lengkap hanya 1 kata maka diisi 1 kata saja, jika lebih dari 2 kata tetap diisi dengan 2 kata dengan dipisah tanda dash atau tanda hubung</t>
-  </si>
-  <si>
     <t>FOTO diisi dengan nama avatar-(1-20).png, bebas untuk angkanya batasannya hanya dari 1 s.d. 20, jangan lupa menambahkan ekstensi .png. Dikarenakan gambar default memiliki ekstensi .png</t>
   </si>
   <si>
     <t>PASSWORD diisi dengan 'password', setelah diupload password tersebut akan dienkripsi oleh sistem</t>
+  </si>
+  <si>
+    <t>USERNAME diisi dengan nama_depan-nama_tengah, apabila nama lengkap hanya 1 kata maka diisi 1 kata saja, jika lebih dari 2 kata tetap diisi dengan 2 kata dengan dipisah tanda dash atau tanda hubung contoh: Nurdiono, M.Pd. Maka username diisi nurdiono (lowercase), untuk guru dengan nama lebih dari satu kata contoh : Dra. Sulih Prohatiningsih, S.Pd. maka username diisi dengan sulih-prihatiningsih. cukup gunakan nama depan dan nama tengah.</t>
+  </si>
+  <si>
+    <t>pastikan untuk melakukan pengecekan, dan pastikan tidak ada data yang redundan atau duplikat.</t>
   </si>
 </sst>
 </file>
@@ -187,14 +190,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,101 +492,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.65">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B9:F9"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="A1:F1"/>
